--- a/other/class1_1.xlsx
+++ b/other/class1_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="115">
   <si>
     <t>陈静</t>
   </si>
@@ -359,6 +359,10 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -765,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E4:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2314,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="5:11">

--- a/other/class1_1.xlsx
+++ b/other/class1_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="116">
   <si>
     <t>陈静</t>
   </si>
@@ -359,6 +359,10 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -769,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E4:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -865,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="5:11">
@@ -1001,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="5:11">
@@ -1225,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="5:11">
@@ -1292,9 +1296,7 @@
       <c r="H34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="5:11">
       <c r="E35" s="2">
@@ -2063,7 +2065,9 @@
       <c r="H79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I79" s="3"/>
+      <c r="I79" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="80" spans="5:11">
       <c r="E80" s="2">

--- a/other/class1_1.xlsx
+++ b/other/class1_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="117">
   <si>
     <t>陈静</t>
   </si>
@@ -359,6 +359,10 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -773,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E4:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1502,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="5:11">
